--- a/REGULAR/MAHOGANY MARKET/MACASPAC, JOSE VICTOR.xlsx
+++ b/REGULAR/MAHOGANY MARKET/MACASPAC, JOSE VICTOR.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="93">
   <si>
     <t>PERIOD</t>
   </si>
@@ -309,6 +309,9 @@
   </si>
   <si>
     <t>UT(0-0-4)</t>
+  </si>
+  <si>
+    <t>UT(0-1-3)</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +1006,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K143" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K145" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1332,12 +1335,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K143"/>
+  <dimension ref="A2:K145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="E8" sqref="E8"/>
-      <selection pane="bottomLeft" activeCell="D75" sqref="D75"/>
+      <selection pane="bottomLeft" activeCell="F77" sqref="F77:F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1500,7 +1503,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>48.954000000000008</v>
+        <v>47.823000000000008</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2877,39 +2880,35 @@
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="40">
-        <v>44682</v>
-      </c>
+      <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C74" s="13">
-        <v>1.25</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C74" s="13"/>
       <c r="D74" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
-      <c r="G74" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G74" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H74" s="39"/>
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
-      <c r="K74" s="20" t="s">
-        <v>90</v>
+      <c r="K74" s="49">
+        <v>45040</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="39">
-        <v>8.0000000000000002E-3</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
@@ -2920,41 +2919,43 @@
       <c r="H75" s="39"/>
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
-      <c r="K75" s="20"/>
+      <c r="K75" s="49"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="C76" s="13">
         <v>1.25</v>
       </c>
-      <c r="D76" s="39"/>
+      <c r="D76" s="39">
+        <v>2</v>
+      </c>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
       <c r="G76" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H76" s="39">
-        <v>1</v>
-      </c>
+      <c r="H76" s="39"/>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
-      <c r="K76" s="49">
-        <v>44734</v>
+      <c r="K76" s="20" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="C77" s="13"/>
-      <c r="D77" s="39"/>
+      <c r="D77" s="39">
+        <v>8.0000000000000002E-3</v>
+      </c>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
       <c r="G77" s="13" t="str">
@@ -2964,22 +2965,24 @@
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
-      <c r="K77" s="49">
-        <v>44742</v>
-      </c>
+      <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
+      <c r="A78" s="40">
+        <v>44713</v>
+      </c>
       <c r="B78" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C78" s="13"/>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="39">
         <v>1</v>
@@ -2987,18 +2990,16 @@
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
       <c r="K78" s="49">
-        <v>44780</v>
+        <v>44734</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="C79" s="13"/>
-      <c r="D79" s="39">
-        <v>2</v>
-      </c>
+      <c r="D79" s="39"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
       <c r="G79" s="13" t="str">
@@ -3008,200 +3009,198 @@
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="49" t="s">
-        <v>88</v>
+      <c r="K79" s="49">
+        <v>44742</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="C80" s="13"/>
-      <c r="D80" s="39">
-        <v>5.4000000000000013E-2</v>
-      </c>
+      <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
       <c r="G80" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H80" s="39"/>
+      <c r="H80" s="39">
+        <v>1</v>
+      </c>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="49"/>
+      <c r="K80" s="49">
+        <v>44780</v>
+      </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="40">
-        <v>44743</v>
-      </c>
+      <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C81" s="13">
-        <v>1.25</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C81" s="13"/>
       <c r="D81" s="39">
-        <v>7.3000000000000009E-2</v>
+        <v>2</v>
       </c>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G81" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="20"/>
+      <c r="K81" s="49" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40">
-        <v>44774</v>
-      </c>
+      <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C82" s="13">
-        <v>1.25</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="C82" s="13"/>
       <c r="D82" s="39">
-        <v>0.22700000000000001</v>
+        <v>5.4000000000000013E-2</v>
       </c>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G82" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
-      <c r="K82" s="20"/>
+      <c r="K82" s="49"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <v>44805</v>
+        <v>44743</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="C83" s="13">
         <v>1.25</v>
       </c>
-      <c r="D83" s="39"/>
+      <c r="D83" s="39">
+        <v>7.3000000000000009E-2</v>
+      </c>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
       <c r="G83" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H83" s="39">
-        <v>1</v>
-      </c>
+      <c r="H83" s="39"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="49">
-        <v>44815</v>
-      </c>
+      <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
+      <c r="A84" s="40">
+        <v>44774</v>
+      </c>
       <c r="B84" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C84" s="13"/>
+        <v>85</v>
+      </c>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39">
-        <v>4.6000000000000006E-2</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
-      <c r="K84" s="49"/>
+      <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="C85" s="13">
         <v>1.25</v>
       </c>
-      <c r="D85" s="39">
-        <v>6.9000000000000006E-2</v>
-      </c>
+      <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
       <c r="G85" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H85" s="39"/>
+      <c r="H85" s="39">
+        <v>1</v>
+      </c>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="20"/>
+      <c r="K85" s="49">
+        <v>44815</v>
+      </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="40">
-        <v>44866</v>
-      </c>
+      <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C86" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D86" s="39"/>
+        <v>84</v>
+      </c>
+      <c r="C86" s="13"/>
+      <c r="D86" s="39">
+        <v>4.6000000000000006E-2</v>
+      </c>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H86" s="39">
-        <v>1</v>
-      </c>
+      <c r="G86" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H86" s="39"/>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
-      <c r="K86" s="49">
-        <v>44878</v>
-      </c>
+      <c r="K86" s="49"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
+      <c r="A87" s="40">
+        <v>44835</v>
+      </c>
       <c r="B87" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C87" s="13"/>
+        <v>83</v>
+      </c>
+      <c r="C87" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="39">
-        <v>2.5000000000000008E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
-      <c r="K87" s="49"/>
+      <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C88" s="13">
         <v>1.25</v>
@@ -3213,21 +3212,23 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H88" s="39"/>
+      <c r="H88" s="39">
+        <v>1</v>
+      </c>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
       <c r="K88" s="49">
-        <v>44901</v>
+        <v>44878</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="C89" s="13"/>
       <c r="D89" s="39">
-        <v>3</v>
+        <v>2.5000000000000008E-2</v>
       </c>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
@@ -3238,40 +3239,40 @@
       <c r="H89" s="39"/>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
-      <c r="K89" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="K89" s="49"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="40"/>
+      <c r="A90" s="40">
+        <v>44896</v>
+      </c>
       <c r="B90" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C90" s="13"/>
-      <c r="D90" s="39">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C90" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D90" s="39"/>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
-      <c r="G90" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G90" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H90" s="39"/>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
       <c r="K90" s="49">
-        <v>44910</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C91" s="13"/>
       <c r="D91" s="39">
-        <v>4.4000000000000004E-2</v>
+        <v>3</v>
       </c>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
@@ -3282,15 +3283,19 @@
       <c r="H91" s="39"/>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="49"/>
+      <c r="K91" s="20" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="B92" s="20"/>
+      <c r="A92" s="40"/>
+      <c r="B92" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="C92" s="13"/>
-      <c r="D92" s="39"/>
+      <c r="D92" s="39">
+        <v>1</v>
+      </c>
       <c r="E92" s="9"/>
       <c r="F92" s="20"/>
       <c r="G92" s="13" t="str">
@@ -3300,66 +3305,54 @@
       <c r="H92" s="39"/>
       <c r="I92" s="9"/>
       <c r="J92" s="11"/>
-      <c r="K92" s="20"/>
+      <c r="K92" s="49">
+        <v>44910</v>
+      </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="40">
-        <v>44927</v>
-      </c>
+      <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C93" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D93" s="39"/>
+        <v>81</v>
+      </c>
+      <c r="C93" s="13"/>
+      <c r="D93" s="39">
+        <v>4.4000000000000004E-2</v>
+      </c>
       <c r="E93" s="9"/>
       <c r="F93" s="20"/>
-      <c r="G93" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H93" s="39">
-        <v>1</v>
-      </c>
+      <c r="G93" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H93" s="39"/>
       <c r="I93" s="9"/>
       <c r="J93" s="11"/>
-      <c r="K93" s="49">
-        <v>44941</v>
-      </c>
+      <c r="K93" s="49"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="40">
-        <v>44958</v>
-      </c>
-      <c r="B94" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C94" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D94" s="39">
-        <v>2</v>
-      </c>
+      <c r="A94" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="B94" s="20"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="39"/>
       <c r="E94" s="9"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G94" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H94" s="39"/>
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
-      <c r="K94" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>44986</v>
+        <v>44927</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C95" s="13">
         <v>1.25</v>
@@ -3372,23 +3365,27 @@
         <v>1.25</v>
       </c>
       <c r="H95" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="11"/>
-      <c r="K95" s="20" t="s">
-        <v>76</v>
+      <c r="K95" s="49">
+        <v>44941</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B96" s="20"/>
+        <v>44958</v>
+      </c>
+      <c r="B96" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="C96" s="13">
         <v>1.25</v>
       </c>
-      <c r="D96" s="39"/>
+      <c r="D96" s="39">
+        <v>2</v>
+      </c>
       <c r="E96" s="9"/>
       <c r="F96" s="20"/>
       <c r="G96" s="13">
@@ -3398,14 +3395,16 @@
       <c r="H96" s="39"/>
       <c r="I96" s="9"/>
       <c r="J96" s="11"/>
-      <c r="K96" s="20"/>
+      <c r="K96" s="20" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>45047</v>
+        <v>44986</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C97" s="13">
         <v>1.25</v>
@@ -3418,41 +3417,41 @@
         <v>1.25</v>
       </c>
       <c r="H97" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="11"/>
-      <c r="K97" s="49">
-        <v>45044</v>
+      <c r="K97" s="20" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="40"/>
-      <c r="B98" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C98" s="13"/>
-      <c r="D98" s="39">
-        <v>3</v>
-      </c>
+      <c r="A98" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B98" s="20"/>
+      <c r="C98" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D98" s="39"/>
       <c r="E98" s="9"/>
       <c r="F98" s="20"/>
-      <c r="G98" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G98" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H98" s="39"/>
       <c r="I98" s="9"/>
       <c r="J98" s="11"/>
-      <c r="K98" s="49" t="s">
-        <v>77</v>
-      </c>
+      <c r="K98" s="20"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B99" s="20"/>
+        <v>45047</v>
+      </c>
+      <c r="B99" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C99" s="13">
         <v>1.25</v>
       </c>
@@ -3463,47 +3462,51 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H99" s="39"/>
+      <c r="H99" s="39">
+        <v>1</v>
+      </c>
       <c r="I99" s="9"/>
       <c r="J99" s="11"/>
-      <c r="K99" s="20"/>
+      <c r="K99" s="49">
+        <v>45044</v>
+      </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="40">
-        <v>45108</v>
-      </c>
+      <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C100" s="13"/>
-      <c r="D100" s="39"/>
+      <c r="D100" s="39">
+        <v>3</v>
+      </c>
       <c r="E100" s="9"/>
       <c r="F100" s="20"/>
       <c r="G100" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H100" s="39">
-        <v>5</v>
-      </c>
+      <c r="H100" s="39"/>
       <c r="I100" s="9"/>
       <c r="J100" s="11"/>
-      <c r="K100" s="20" t="s">
-        <v>79</v>
+      <c r="K100" s="49" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>45139</v>
+        <v>45078</v>
       </c>
       <c r="B101" s="20"/>
-      <c r="C101" s="13"/>
+      <c r="C101" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D101" s="39"/>
       <c r="E101" s="9"/>
       <c r="F101" s="20"/>
-      <c r="G101" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G101" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H101" s="39"/>
       <c r="I101" s="9"/>
@@ -3512,9 +3515,11 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B102" s="20"/>
+        <v>45108</v>
+      </c>
+      <c r="B102" s="20" t="s">
+        <v>78</v>
+      </c>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
       <c r="E102" s="9"/>
@@ -3523,14 +3528,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H102" s="39"/>
+      <c r="H102" s="39">
+        <v>5</v>
+      </c>
       <c r="I102" s="9"/>
       <c r="J102" s="11"/>
-      <c r="K102" s="20"/>
+      <c r="K102" s="20" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>45200</v>
+        <v>45139</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3548,7 +3557,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3566,7 +3575,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3584,7 +3593,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>45292</v>
+        <v>45231</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3602,7 +3611,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>45323</v>
+        <v>45261</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3620,7 +3629,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3638,7 +3647,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3656,7 +3665,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3674,7 +3683,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3692,7 +3701,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3710,7 +3719,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3728,7 +3737,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3746,7 +3755,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3764,7 +3773,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3782,7 +3791,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3800,7 +3809,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3818,7 +3827,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3836,7 +3845,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3854,7 +3863,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3872,7 +3881,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3890,7 +3899,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3908,7 +3917,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -3926,7 +3935,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3944,7 +3953,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -3962,7 +3971,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
-        <v>45931</v>
+        <v>45870</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -3980,7 +3989,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
-        <v>45962</v>
+        <v>45901</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -3998,7 +4007,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
-        <v>45992</v>
+        <v>45931</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -4016,7 +4025,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
-        <v>46023</v>
+        <v>45962</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -4034,7 +4043,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
-        <v>46054</v>
+        <v>45992</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -4052,7 +4061,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
-        <v>46082</v>
+        <v>46023</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -4070,7 +4079,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
-        <v>46113</v>
+        <v>46054</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -4088,7 +4097,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
-        <v>46143</v>
+        <v>46082</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -4106,7 +4115,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
-        <v>46174</v>
+        <v>46113</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -4124,7 +4133,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
-        <v>46204</v>
+        <v>46143</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -4142,7 +4151,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
-        <v>46235</v>
+        <v>46174</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -4160,7 +4169,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
-        <v>46266</v>
+        <v>46204</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -4178,7 +4187,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
-        <v>46296</v>
+        <v>46235</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -4196,7 +4205,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
-        <v>46327</v>
+        <v>46266</v>
       </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -4214,7 +4223,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
-        <v>46357</v>
+        <v>46296</v>
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -4232,7 +4241,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
-        <v>46388</v>
+        <v>46327</v>
       </c>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -4249,20 +4258,56 @@
       <c r="K142" s="20"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="41"/>
-      <c r="B143" s="15"/>
-      <c r="C143" s="42"/>
-      <c r="D143" s="43"/>
+      <c r="A143" s="40">
+        <v>46357</v>
+      </c>
+      <c r="B143" s="20"/>
+      <c r="C143" s="13"/>
+      <c r="D143" s="39"/>
       <c r="E143" s="9"/>
-      <c r="F143" s="15"/>
-      <c r="G143" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H143" s="43"/>
+      <c r="F143" s="20"/>
+      <c r="G143" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H143" s="39"/>
       <c r="I143" s="9"/>
-      <c r="J143" s="12"/>
-      <c r="K143" s="15"/>
+      <c r="J143" s="11"/>
+      <c r="K143" s="20"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" s="40">
+        <v>46388</v>
+      </c>
+      <c r="B144" s="20"/>
+      <c r="C144" s="13"/>
+      <c r="D144" s="39"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="20"/>
+      <c r="G144" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H144" s="39"/>
+      <c r="I144" s="9"/>
+      <c r="J144" s="11"/>
+      <c r="K144" s="20"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" s="41"/>
+      <c r="B145" s="15"/>
+      <c r="C145" s="42"/>
+      <c r="D145" s="43"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="15"/>
+      <c r="G145" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H145" s="43"/>
+      <c r="I145" s="9"/>
+      <c r="J145" s="12"/>
+      <c r="K145" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4373,14 +4418,14 @@
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>8.0000000000000002E-3</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">

--- a/REGULAR/MAHOGANY MARKET/MACASPAC, JOSE VICTOR.xlsx
+++ b/REGULAR/MAHOGANY MARKET/MACASPAC, JOSE VICTOR.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="94">
   <si>
     <t>PERIOD</t>
   </si>
@@ -312,6 +312,9 @@
   </si>
   <si>
     <t>UT(0-1-3)</t>
+  </si>
+  <si>
+    <t>8/22-24/2023</t>
   </si>
 </sst>
 </file>
@@ -1338,9 +1341,9 @@
   <dimension ref="A2:K145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A70" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A91" activePane="bottomLeft"/>
       <selection activeCell="E8" sqref="E8"/>
-      <selection pane="bottomLeft" activeCell="F77" sqref="F77:F78"/>
+      <selection pane="bottomLeft" activeCell="I104" sqref="I104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1503,7 +1506,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>47.823000000000008</v>
+        <v>50.323000000000008</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1513,7 +1516,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>52.5</v>
+        <v>51</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3520,13 +3523,15 @@
       <c r="B102" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C102" s="13"/>
+      <c r="C102" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D102" s="39"/>
       <c r="E102" s="9"/>
       <c r="F102" s="20"/>
-      <c r="G102" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G102" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H102" s="39">
         <v>5</v>
@@ -3541,25 +3546,35 @@
       <c r="A103" s="40">
         <v>45139</v>
       </c>
-      <c r="B103" s="20"/>
-      <c r="C103" s="13"/>
+      <c r="B103" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C103" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D103" s="39"/>
       <c r="E103" s="9"/>
       <c r="F103" s="20"/>
-      <c r="G103" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H103" s="39"/>
+      <c r="G103" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H103" s="39">
+        <v>3</v>
+      </c>
       <c r="I103" s="9"/>
       <c r="J103" s="11"/>
-      <c r="K103" s="20"/>
+      <c r="K103" s="20" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>45170</v>
       </c>
-      <c r="B104" s="20"/>
+      <c r="B104" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C104" s="13"/>
       <c r="D104" s="39"/>
       <c r="E104" s="9"/>
@@ -3568,10 +3583,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H104" s="39"/>
+      <c r="H104" s="39">
+        <v>1</v>
+      </c>
       <c r="I104" s="9"/>
       <c r="J104" s="11"/>
-      <c r="K104" s="20"/>
+      <c r="K104" s="49">
+        <v>45177</v>
+      </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">

--- a/REGULAR/MAHOGANY MARKET/MACASPAC, JOSE VICTOR.xlsx
+++ b/REGULAR/MAHOGANY MARKET/MACASPAC, JOSE VICTOR.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="372">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1143,6 +1143,12 @@
   </si>
   <si>
     <t>11/3,9/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
   </si>
 </sst>
 </file>
@@ -1840,7 +1846,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K550" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K551" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2169,12 +2175,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K550"/>
+  <dimension ref="A2:K551"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A492" activePane="bottomLeft"/>
       <selection activeCell="F8" sqref="F8"/>
-      <selection pane="bottomLeft" activeCell="K511" sqref="K511"/>
+      <selection pane="bottomLeft" activeCell="I513" sqref="I513"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2339,7 +2345,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>178.053</v>
+        <v>180.553</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2349,7 +2355,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>225.75</v>
+        <v>228.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -13004,13 +13010,15 @@
       <c r="B510" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C510" s="13"/>
+      <c r="C510" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D510" s="39"/>
       <c r="E510" s="9"/>
       <c r="F510" s="20"/>
-      <c r="G510" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G510" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H510" s="39">
         <v>2</v>
@@ -13048,13 +13056,15 @@
         <v>45261</v>
       </c>
       <c r="B512" s="20"/>
-      <c r="C512" s="13"/>
+      <c r="C512" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D512" s="39"/>
       <c r="E512" s="9"/>
       <c r="F512" s="20"/>
-      <c r="G512" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G512" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H512" s="39"/>
       <c r="I512" s="9"/>
@@ -13062,8 +13072,8 @@
       <c r="K512" s="20"/>
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A513" s="40">
-        <v>45292</v>
+      <c r="A513" s="47" t="s">
+        <v>370</v>
       </c>
       <c r="B513" s="20"/>
       <c r="C513" s="13"/>
@@ -13081,7 +13091,7 @@
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B514" s="20"/>
       <c r="C514" s="13"/>
@@ -13099,7 +13109,7 @@
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B515" s="20"/>
       <c r="C515" s="13"/>
@@ -13117,7 +13127,7 @@
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B516" s="20"/>
       <c r="C516" s="13"/>
@@ -13135,7 +13145,7 @@
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B517" s="20"/>
       <c r="C517" s="13"/>
@@ -13153,7 +13163,7 @@
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B518" s="20"/>
       <c r="C518" s="13"/>
@@ -13171,7 +13181,7 @@
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B519" s="20"/>
       <c r="C519" s="13"/>
@@ -13189,7 +13199,7 @@
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B520" s="20"/>
       <c r="C520" s="13"/>
@@ -13207,7 +13217,7 @@
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B521" s="20"/>
       <c r="C521" s="13"/>
@@ -13225,7 +13235,7 @@
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B522" s="20"/>
       <c r="C522" s="13"/>
@@ -13243,7 +13253,7 @@
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B523" s="20"/>
       <c r="C523" s="13"/>
@@ -13261,7 +13271,7 @@
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B524" s="20"/>
       <c r="C524" s="13"/>
@@ -13279,7 +13289,7 @@
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B525" s="20"/>
       <c r="C525" s="13"/>
@@ -13297,7 +13307,7 @@
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B526" s="20"/>
       <c r="C526" s="13"/>
@@ -13315,7 +13325,7 @@
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
@@ -13333,7 +13343,7 @@
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
@@ -13351,7 +13361,7 @@
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
@@ -13369,7 +13379,7 @@
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -13387,7 +13397,7 @@
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -13405,7 +13415,7 @@
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -13423,7 +13433,7 @@
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -13441,7 +13451,7 @@
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -13459,7 +13469,7 @@
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -13477,7 +13487,7 @@
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -13495,7 +13505,7 @@
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -13513,7 +13523,7 @@
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -13531,7 +13541,7 @@
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -13549,14 +13559,14 @@
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
       <c r="D540" s="39"/>
       <c r="E540" s="9"/>
-      <c r="F540" s="15"/>
-      <c r="G540" s="41" t="str">
+      <c r="F540" s="20"/>
+      <c r="G540" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
@@ -13567,14 +13577,14 @@
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
       <c r="D541" s="39"/>
       <c r="E541" s="9"/>
-      <c r="F541" s="20"/>
-      <c r="G541" s="13" t="str">
+      <c r="F541" s="15"/>
+      <c r="G541" s="41" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
@@ -13585,7 +13595,7 @@
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -13603,7 +13613,7 @@
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -13621,7 +13631,7 @@
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
@@ -13639,7 +13649,7 @@
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -13657,7 +13667,7 @@
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -13675,7 +13685,7 @@
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
@@ -13693,7 +13703,7 @@
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -13711,7 +13721,7 @@
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -13728,7 +13738,9 @@
       <c r="K549" s="20"/>
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A550" s="40"/>
+      <c r="A550" s="40">
+        <v>46388</v>
+      </c>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
       <c r="D550" s="39"/>
@@ -13738,10 +13750,26 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H550" s="42"/>
+      <c r="H550" s="39"/>
       <c r="I550" s="9"/>
-      <c r="J550" s="12"/>
-      <c r="K550" s="15"/>
+      <c r="J550" s="11"/>
+      <c r="K550" s="20"/>
+    </row>
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A551" s="40"/>
+      <c r="B551" s="20"/>
+      <c r="C551" s="13"/>
+      <c r="D551" s="39"/>
+      <c r="E551" s="9"/>
+      <c r="F551" s="20"/>
+      <c r="G551" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H551" s="42"/>
+      <c r="I551" s="9"/>
+      <c r="J551" s="12"/>
+      <c r="K551" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -13788,7 +13816,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13888,6 +13916,9 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>371</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -13909,6 +13940,10 @@
       <c r="L6" s="62"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>408.803</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>

--- a/REGULAR/MAHOGANY MARKET/MACASPAC, JOSE VICTOR.xlsx
+++ b/REGULAR/MAHOGANY MARKET/MACASPAC, JOSE VICTOR.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\MAHOGANY MARKET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\MAHOGANY MARKET\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333313DA-E91A-488A-815A-897F7DBECC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="374">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1149,12 +1150,18 @@
   </si>
   <si>
     <t>TOTAL LEAVE BALANCE</t>
+  </si>
+  <si>
+    <t>VL(4-0-0)</t>
+  </si>
+  <si>
+    <t>2/8,12,13,14/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1829,7 +1836,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1846,25 +1853,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K551" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K551" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2171,34 +2178,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K551"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A492" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A507" activePane="bottomLeft"/>
       <selection activeCell="F8" sqref="F8"/>
-      <selection pane="bottomLeft" activeCell="I513" sqref="I513"/>
+      <selection pane="bottomLeft" activeCell="K516" sqref="K516"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2219,7 +2226,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2241,7 +2248,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2263,7 +2270,7 @@
       <c r="J4" s="54"/>
       <c r="K4" s="55"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2271,7 +2278,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2284,7 +2291,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -2301,7 +2308,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2336,7 +2343,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2345,7 +2352,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>180.553</v>
+        <v>177.803</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2355,12 +2362,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>228.25</v>
+        <v>229.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>74</v>
       </c>
@@ -2382,7 +2389,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>35796</v>
       </c>
@@ -2408,7 +2415,7 @@
         <v>35916</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="23"/>
       <c r="B12" s="20" t="s">
         <v>44</v>
@@ -2427,7 +2434,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="23"/>
       <c r="B13" s="20" t="s">
         <v>75</v>
@@ -2444,7 +2451,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <v>35827</v>
       </c>
@@ -2470,7 +2477,7 @@
         <v>35828</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="23"/>
       <c r="B15" s="20" t="s">
         <v>77</v>
@@ -2489,7 +2496,7 @@
         <v>35948</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="23"/>
       <c r="B16" s="20" t="s">
         <v>44</v>
@@ -2508,7 +2515,7 @@
         <v>36040</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="23"/>
       <c r="B17" s="20" t="s">
         <v>78</v>
@@ -2525,7 +2532,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
         <v>35855</v>
       </c>
@@ -2549,7 +2556,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
         <v>35886</v>
       </c>
@@ -2575,7 +2582,7 @@
         <v>35889</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="23"/>
       <c r="B20" s="20" t="s">
         <v>44</v>
@@ -2594,7 +2601,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="23"/>
       <c r="B21" s="20" t="s">
         <v>77</v>
@@ -2613,7 +2620,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="23"/>
       <c r="B22" s="20" t="s">
         <v>82</v>
@@ -2630,7 +2637,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="23">
         <v>35916</v>
       </c>
@@ -2656,7 +2663,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="23"/>
       <c r="B24" s="20" t="s">
         <v>44</v>
@@ -2675,7 +2682,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="23"/>
       <c r="B25" s="20" t="s">
         <v>85</v>
@@ -2692,7 +2699,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
         <v>35947</v>
       </c>
@@ -2716,7 +2723,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="23"/>
       <c r="B27" s="20" t="s">
         <v>88</v>
@@ -2736,7 +2743,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="23">
         <v>35977</v>
       </c>
@@ -2762,7 +2769,7 @@
         <v>35953</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="23"/>
       <c r="B29" s="20" t="s">
         <v>89</v>
@@ -2779,7 +2786,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="23">
         <v>36008</v>
       </c>
@@ -2805,7 +2812,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="23"/>
       <c r="B31" s="20" t="s">
         <v>91</v>
@@ -2825,7 +2832,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="23">
         <v>36039</v>
       </c>
@@ -2849,7 +2856,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="23"/>
       <c r="B33" s="20" t="s">
         <v>44</v>
@@ -2868,7 +2875,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="23"/>
       <c r="B34" s="20" t="s">
         <v>95</v>
@@ -2885,7 +2892,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="23">
         <v>36069</v>
       </c>
@@ -2911,7 +2918,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="23"/>
       <c r="B36" s="20" t="s">
         <v>44</v>
@@ -2930,7 +2937,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="23"/>
       <c r="B37" s="20" t="s">
         <v>98</v>
@@ -2947,7 +2954,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="23">
         <v>36100</v>
       </c>
@@ -2973,7 +2980,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="23"/>
       <c r="B39" s="20" t="s">
         <v>148</v>
@@ -2990,7 +2997,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="23"/>
       <c r="B40" s="20" t="s">
         <v>101</v>
@@ -3007,7 +3014,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="51"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="23">
         <v>36130</v>
       </c>
@@ -3033,7 +3040,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="23"/>
       <c r="B42" s="20" t="s">
         <v>77</v>
@@ -3052,7 +3059,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="23"/>
       <c r="B43" s="20" t="s">
         <v>104</v>
@@ -3069,7 +3076,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="47" t="s">
         <v>105</v>
       </c>
@@ -3084,7 +3091,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="23">
         <v>36161</v>
       </c>
@@ -3110,7 +3117,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="23"/>
       <c r="B46" s="20" t="s">
         <v>77</v>
@@ -3129,7 +3136,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="23"/>
       <c r="B47" s="20" t="s">
         <v>106</v>
@@ -3146,7 +3153,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="23">
         <v>36192</v>
       </c>
@@ -3172,7 +3179,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="23"/>
       <c r="B49" s="20" t="s">
         <v>110</v>
@@ -3189,7 +3196,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="23">
         <v>36220</v>
       </c>
@@ -3215,7 +3222,7 @@
         <v>36497</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="23"/>
       <c r="B51" s="20" t="s">
         <v>44</v>
@@ -3234,7 +3241,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="23"/>
       <c r="B52" s="20" t="s">
         <v>44</v>
@@ -3253,7 +3260,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="23"/>
       <c r="B53" s="20" t="s">
         <v>111</v>
@@ -3270,7 +3277,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="23">
         <v>36251</v>
       </c>
@@ -3296,7 +3303,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="23"/>
       <c r="B55" s="20" t="s">
         <v>115</v>
@@ -3313,7 +3320,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="23">
         <v>36281</v>
       </c>
@@ -3339,7 +3346,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="23"/>
       <c r="B57" s="20" t="s">
         <v>61</v>
@@ -3358,7 +3365,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="23"/>
       <c r="B58" s="20" t="s">
         <v>117</v>
@@ -3375,7 +3382,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="23">
         <v>36312</v>
       </c>
@@ -3399,7 +3406,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="23"/>
       <c r="B60" s="20" t="s">
         <v>44</v>
@@ -3418,7 +3425,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="23"/>
       <c r="B61" s="20" t="s">
         <v>119</v>
@@ -3435,7 +3442,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="23">
         <v>36342</v>
       </c>
@@ -3461,7 +3468,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="23"/>
       <c r="B63" s="20" t="s">
         <v>122</v>
@@ -3478,7 +3485,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="23">
         <v>36373</v>
       </c>
@@ -3504,7 +3511,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="23"/>
       <c r="B65" s="20" t="s">
         <v>124</v>
@@ -3521,7 +3528,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="23">
         <v>36404</v>
       </c>
@@ -3547,7 +3554,7 @@
         <v>36169</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="23"/>
       <c r="B67" s="20" t="s">
         <v>52</v>
@@ -3564,7 +3571,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="23"/>
       <c r="B68" s="20" t="s">
         <v>126</v>
@@ -3581,7 +3588,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="23">
         <v>36434</v>
       </c>
@@ -3607,7 +3614,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="23">
         <v>36465</v>
       </c>
@@ -3633,7 +3640,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="23"/>
       <c r="B71" s="20" t="s">
         <v>61</v>
@@ -3652,7 +3659,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="23"/>
       <c r="B72" s="20" t="s">
         <v>130</v>
@@ -3669,7 +3676,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="23">
         <v>36495</v>
       </c>
@@ -3693,7 +3700,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="47" t="s">
         <v>132</v>
       </c>
@@ -3708,7 +3715,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="23">
         <v>36526</v>
       </c>
@@ -3732,7 +3739,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="23">
         <v>36557</v>
       </c>
@@ -3758,7 +3765,7 @@
         <v>36832</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="23"/>
       <c r="B77" s="20" t="s">
         <v>77</v>
@@ -3777,7 +3784,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="23"/>
       <c r="B78" s="20" t="s">
         <v>134</v>
@@ -3794,7 +3801,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="23">
         <v>36586</v>
       </c>
@@ -3818,7 +3825,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="23">
         <v>36617</v>
       </c>
@@ -3842,7 +3849,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="23">
         <v>36647</v>
       </c>
@@ -3868,7 +3875,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="23"/>
       <c r="B82" s="20" t="s">
         <v>61</v>
@@ -3887,7 +3894,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="23"/>
       <c r="B83" s="20" t="s">
         <v>77</v>
@@ -3906,7 +3913,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="23"/>
       <c r="B84" s="20" t="s">
         <v>148</v>
@@ -3923,7 +3930,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="23"/>
       <c r="B85" s="20" t="s">
         <v>142</v>
@@ -3940,7 +3947,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="51"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="23">
         <v>36678</v>
       </c>
@@ -3960,7 +3967,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="23">
         <v>36708</v>
       </c>
@@ -3984,7 +3991,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="23">
         <v>36739</v>
       </c>
@@ -4008,7 +4015,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="23">
         <v>36770</v>
       </c>
@@ -4034,7 +4041,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="23"/>
       <c r="B90" s="20" t="s">
         <v>44</v>
@@ -4053,7 +4060,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="23"/>
       <c r="B91" s="20" t="s">
         <v>149</v>
@@ -4070,7 +4077,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="23">
         <v>36800</v>
       </c>
@@ -4096,7 +4103,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="23"/>
       <c r="B93" s="20" t="s">
         <v>61</v>
@@ -4115,7 +4122,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="23"/>
       <c r="B94" s="20" t="s">
         <v>145</v>
@@ -4132,7 +4139,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="23">
         <v>36831</v>
       </c>
@@ -4156,7 +4163,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="23">
         <v>36861</v>
       </c>
@@ -4182,7 +4189,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="23"/>
       <c r="B97" s="20" t="s">
         <v>153</v>
@@ -4199,7 +4206,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="47" t="s">
         <v>155</v>
       </c>
@@ -4214,7 +4221,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="23">
         <v>36892</v>
       </c>
@@ -4240,7 +4247,7 @@
         <v>37226</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="23"/>
       <c r="B100" s="20" t="s">
         <v>156</v>
@@ -4260,7 +4267,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="23">
         <v>36923</v>
       </c>
@@ -4286,7 +4293,7 @@
         <v>37227</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="23"/>
       <c r="B102" s="20" t="s">
         <v>157</v>
@@ -4306,7 +4313,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="23">
         <v>36951</v>
       </c>
@@ -4330,7 +4337,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="23">
         <v>36982</v>
       </c>
@@ -4356,7 +4363,7 @@
         <v>37046</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="23"/>
       <c r="B105" s="20" t="s">
         <v>159</v>
@@ -4373,7 +4380,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="23">
         <v>37012</v>
       </c>
@@ -4393,7 +4400,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="23">
         <v>37043</v>
       </c>
@@ -4417,7 +4424,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="23"/>
       <c r="B108" s="20" t="s">
         <v>44</v>
@@ -4436,7 +4443,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="23">
         <v>37073</v>
       </c>
@@ -4460,7 +4467,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="23">
         <v>37104</v>
       </c>
@@ -4486,7 +4493,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="23"/>
       <c r="B111" s="20" t="s">
         <v>163</v>
@@ -4503,7 +4510,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="23">
         <v>37135</v>
       </c>
@@ -4527,7 +4534,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="23"/>
       <c r="B113" s="20" t="s">
         <v>77</v>
@@ -4546,7 +4553,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="23"/>
       <c r="B114" s="20" t="s">
         <v>167</v>
@@ -4563,7 +4570,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="23">
         <v>37165</v>
       </c>
@@ -4589,7 +4596,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="23"/>
       <c r="B116" s="20" t="s">
         <v>168</v>
@@ -4606,7 +4613,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="23">
         <v>37196</v>
       </c>
@@ -4632,7 +4639,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="23"/>
       <c r="B118" s="20" t="s">
         <v>44</v>
@@ -4651,7 +4658,7 @@
         <v>37145</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="23"/>
       <c r="B119" s="20" t="s">
         <v>61</v>
@@ -4668,7 +4675,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="23"/>
       <c r="B120" s="20" t="s">
         <v>170</v>
@@ -4683,7 +4690,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="23">
         <v>37226</v>
       </c>
@@ -4707,7 +4714,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="47" t="s">
         <v>173</v>
       </c>
@@ -4725,7 +4732,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="23">
         <v>37257</v>
       </c>
@@ -4751,7 +4758,7 @@
         <v>37288</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="23"/>
       <c r="B124" s="20" t="s">
         <v>44</v>
@@ -4770,7 +4777,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="23"/>
       <c r="B125" s="20" t="s">
         <v>175</v>
@@ -4790,7 +4797,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="23">
         <v>37288</v>
       </c>
@@ -4816,7 +4823,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="23"/>
       <c r="B127" s="20" t="s">
         <v>177</v>
@@ -4833,7 +4840,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="23">
         <v>37316</v>
       </c>
@@ -4859,7 +4866,7 @@
         <v>37379</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="23"/>
       <c r="B129" s="20" t="s">
         <v>178</v>
@@ -4876,7 +4883,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="23">
         <v>37347</v>
       </c>
@@ -4902,7 +4909,7 @@
         <v>37594</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="23"/>
       <c r="B131" s="20" t="s">
         <v>45</v>
@@ -4921,7 +4928,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="23"/>
       <c r="B132" s="20" t="s">
         <v>181</v>
@@ -4938,7 +4945,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="23">
         <v>37377</v>
       </c>
@@ -4962,7 +4969,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="23">
         <v>37408</v>
       </c>
@@ -4988,7 +4995,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="23"/>
       <c r="B135" s="20" t="s">
         <v>52</v>
@@ -5008,7 +5015,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="23"/>
       <c r="B136" s="20" t="s">
         <v>184</v>
@@ -5025,7 +5032,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="23">
         <v>37438</v>
       </c>
@@ -5049,7 +5056,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="23"/>
       <c r="B138" s="20" t="s">
         <v>186</v>
@@ -5066,7 +5073,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="23">
         <v>37469</v>
       </c>
@@ -5090,7 +5097,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="23">
         <v>37500</v>
       </c>
@@ -5116,7 +5123,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="23"/>
       <c r="B141" s="20" t="s">
         <v>44</v>
@@ -5135,7 +5142,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="23"/>
       <c r="B142" s="20" t="s">
         <v>188</v>
@@ -5152,7 +5159,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="23">
         <v>37530</v>
       </c>
@@ -5176,7 +5183,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="23">
         <v>37561</v>
       </c>
@@ -5202,7 +5209,7 @@
         <v>37448</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="23"/>
       <c r="B145" s="20" t="s">
         <v>124</v>
@@ -5219,7 +5226,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="23">
         <v>37591</v>
       </c>
@@ -5243,7 +5250,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="23"/>
       <c r="B147" s="20" t="s">
         <v>133</v>
@@ -5260,7 +5267,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="47" t="s">
         <v>193</v>
       </c>
@@ -5275,7 +5282,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="23">
         <v>37622</v>
       </c>
@@ -5301,7 +5308,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="23"/>
       <c r="B150" s="20" t="s">
         <v>79</v>
@@ -5318,7 +5325,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="23">
         <v>37653</v>
       </c>
@@ -5342,7 +5349,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="23">
         <v>37681</v>
       </c>
@@ -5366,7 +5373,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="23">
         <v>37712</v>
       </c>
@@ -5392,7 +5399,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="23"/>
       <c r="B154" s="20" t="s">
         <v>52</v>
@@ -5412,7 +5419,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="23"/>
       <c r="B155" s="20" t="s">
         <v>199</v>
@@ -5429,7 +5436,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="23">
         <v>37742</v>
       </c>
@@ -5453,7 +5460,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="23">
         <v>37773</v>
       </c>
@@ -5477,7 +5484,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="23">
         <v>37803</v>
       </c>
@@ -5503,7 +5510,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="23"/>
       <c r="B159" s="20" t="s">
         <v>77</v>
@@ -5522,7 +5529,7 @@
         <v>37629</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="23"/>
       <c r="B160" s="20" t="s">
         <v>204</v>
@@ -5539,7 +5546,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="23">
         <v>37834</v>
       </c>
@@ -5563,7 +5570,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="23">
         <v>37865</v>
       </c>
@@ -5589,7 +5596,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="23"/>
       <c r="B163" s="20" t="s">
         <v>44</v>
@@ -5606,7 +5613,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="23"/>
       <c r="B164" s="20" t="s">
         <v>98</v>
@@ -5623,7 +5630,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="23">
         <v>37895</v>
       </c>
@@ -5647,7 +5654,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="23">
         <v>37926</v>
       </c>
@@ -5673,7 +5680,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="23"/>
       <c r="B167" s="20" t="s">
         <v>45</v>
@@ -5692,7 +5699,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="23"/>
       <c r="B168" s="20" t="s">
         <v>211</v>
@@ -5712,7 +5719,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="23">
         <v>37956</v>
       </c>
@@ -5736,7 +5743,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="47" t="s">
         <v>213</v>
       </c>
@@ -5751,7 +5758,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="23">
         <v>37987</v>
       </c>
@@ -5775,7 +5782,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="23">
         <v>38018</v>
       </c>
@@ -5801,7 +5808,7 @@
         <v>38048</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="23"/>
       <c r="B173" s="20" t="s">
         <v>44</v>
@@ -5820,7 +5827,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="23"/>
       <c r="B174" s="20" t="s">
         <v>44</v>
@@ -5839,7 +5846,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="23">
         <v>38047</v>
       </c>
@@ -5863,7 +5870,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="23">
         <v>38078</v>
       </c>
@@ -5887,7 +5894,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="23">
         <v>38108</v>
       </c>
@@ -5913,7 +5920,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="23"/>
       <c r="B178" s="20" t="s">
         <v>44</v>
@@ -5932,7 +5939,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="23"/>
       <c r="B179" s="20" t="s">
         <v>52</v>
@@ -5949,7 +5956,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="23"/>
       <c r="B180" s="20" t="s">
         <v>219</v>
@@ -5966,7 +5973,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="23">
         <v>38139</v>
       </c>
@@ -5990,7 +5997,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="23">
         <v>38169</v>
       </c>
@@ -6016,7 +6023,7 @@
         <v>38237</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="23"/>
       <c r="B183" s="20" t="s">
         <v>44</v>
@@ -6035,7 +6042,7 @@
         <v>38328</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="23"/>
       <c r="B184" s="20" t="s">
         <v>44</v>
@@ -6054,7 +6061,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="23"/>
       <c r="B185" s="20" t="s">
         <v>225</v>
@@ -6071,7 +6078,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="23">
         <v>38200</v>
       </c>
@@ -6095,7 +6102,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="23">
         <v>38231</v>
       </c>
@@ -6119,7 +6126,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="23"/>
       <c r="B188" s="20" t="s">
         <v>45</v>
@@ -6138,7 +6145,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="23"/>
       <c r="B189" s="20" t="s">
         <v>227</v>
@@ -6155,7 +6162,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="23">
         <v>38261</v>
       </c>
@@ -6179,7 +6186,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="23">
         <v>38292</v>
       </c>
@@ -6205,7 +6212,7 @@
         <v>38028</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="23"/>
       <c r="B192" s="20" t="s">
         <v>231</v>
@@ -6222,7 +6229,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="23">
         <v>38322</v>
       </c>
@@ -6246,7 +6253,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="23"/>
       <c r="B194" s="20" t="s">
         <v>51</v>
@@ -6265,7 +6272,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="23"/>
       <c r="B195" s="20" t="s">
         <v>235</v>
@@ -6282,7 +6289,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="47" t="s">
         <v>234</v>
       </c>
@@ -6297,7 +6304,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="23">
         <v>38353</v>
       </c>
@@ -6321,7 +6328,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="23"/>
       <c r="B198" s="20" t="s">
         <v>218</v>
@@ -6338,7 +6345,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="23">
         <v>38384</v>
       </c>
@@ -6364,7 +6371,7 @@
         <v>38658</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="23"/>
       <c r="B200" s="20" t="s">
         <v>237</v>
@@ -6381,7 +6388,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="23">
         <v>38412</v>
       </c>
@@ -6407,7 +6414,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="23"/>
       <c r="B202" s="20" t="s">
         <v>239</v>
@@ -6424,7 +6431,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="23">
         <v>38443</v>
       </c>
@@ -6448,7 +6455,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="23">
         <v>38473</v>
       </c>
@@ -6472,7 +6479,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="23">
         <v>38504</v>
       </c>
@@ -6496,7 +6503,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="23"/>
       <c r="B206" s="20" t="s">
         <v>44</v>
@@ -6515,7 +6522,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="23"/>
       <c r="B207" s="20" t="s">
         <v>52</v>
@@ -6532,7 +6539,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="23"/>
       <c r="B208" s="20" t="s">
         <v>44</v>
@@ -6551,7 +6558,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="23"/>
       <c r="B209" s="20" t="s">
         <v>243</v>
@@ -6568,7 +6575,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="23">
         <v>38534</v>
       </c>
@@ -6594,7 +6601,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="23"/>
       <c r="B211" s="20" t="s">
         <v>248</v>
@@ -6614,7 +6621,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="23">
         <v>38565</v>
       </c>
@@ -6638,7 +6645,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="23">
         <v>38596</v>
       </c>
@@ -6662,7 +6669,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="23"/>
       <c r="B214" s="20" t="s">
         <v>44</v>
@@ -6684,7 +6691,7 @@
         <v>38512</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="23"/>
       <c r="B215" s="20" t="s">
         <v>45</v>
@@ -6703,7 +6710,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="23"/>
       <c r="B216" s="20" t="s">
         <v>227</v>
@@ -6720,7 +6727,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="23">
         <v>38626</v>
       </c>
@@ -6746,7 +6753,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="23"/>
       <c r="B218" s="20" t="s">
         <v>252</v>
@@ -6766,7 +6773,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="23">
         <v>38657</v>
       </c>
@@ -6792,7 +6799,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="23"/>
       <c r="B220" s="20" t="s">
         <v>44</v>
@@ -6814,7 +6821,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="23"/>
       <c r="B221" s="20" t="s">
         <v>256</v>
@@ -6834,7 +6841,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="23">
         <v>38687</v>
       </c>
@@ -6858,7 +6865,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="47" t="s">
         <v>258</v>
       </c>
@@ -6873,7 +6880,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="23">
         <v>38718</v>
       </c>
@@ -6897,7 +6904,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="23">
         <v>38749</v>
       </c>
@@ -6921,7 +6928,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="23"/>
       <c r="B226" s="20" t="s">
         <v>261</v>
@@ -6941,7 +6948,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="23">
         <v>38777</v>
       </c>
@@ -6967,7 +6974,7 @@
         <v>38803</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="23"/>
       <c r="B228" s="20" t="s">
         <v>262</v>
@@ -6987,7 +6994,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="23">
         <v>38808</v>
       </c>
@@ -7013,7 +7020,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="23"/>
       <c r="B230" s="20" t="s">
         <v>44</v>
@@ -7032,7 +7039,7 @@
         <v>38835</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="23"/>
       <c r="B231" s="20" t="s">
         <v>44</v>
@@ -7051,7 +7058,7 @@
         <v>38839</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="23"/>
       <c r="B232" s="20" t="s">
         <v>45</v>
@@ -7070,7 +7077,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="23"/>
       <c r="B233" s="20" t="s">
         <v>264</v>
@@ -7087,7 +7094,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="23">
         <v>38838</v>
       </c>
@@ -7111,7 +7118,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="23">
         <v>38869</v>
       </c>
@@ -7135,7 +7142,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="23"/>
       <c r="B236" s="20" t="s">
         <v>44</v>
@@ -7157,7 +7164,7 @@
         <v>38898</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="23"/>
       <c r="B237" s="20" t="s">
         <v>268</v>
@@ -7177,7 +7184,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="48"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="23">
         <v>38899</v>
       </c>
@@ -7201,7 +7208,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="23">
         <v>38930</v>
       </c>
@@ -7227,7 +7234,7 @@
         <v>38943</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="23"/>
       <c r="B240" s="20" t="s">
         <v>44</v>
@@ -7246,7 +7253,7 @@
         <v>38958</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="23"/>
       <c r="B241" s="20" t="s">
         <v>52</v>
@@ -7263,7 +7270,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="23"/>
       <c r="B242" s="20" t="s">
         <v>270</v>
@@ -7280,7 +7287,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="23">
         <v>38961</v>
       </c>
@@ -7304,7 +7311,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="23">
         <v>38991</v>
       </c>
@@ -7330,7 +7337,7 @@
         <v>39017</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="23"/>
       <c r="B245" s="20" t="s">
         <v>273</v>
@@ -7350,7 +7357,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="23">
         <v>39022</v>
       </c>
@@ -7374,7 +7381,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="23">
         <v>39052</v>
       </c>
@@ -7400,7 +7407,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="23"/>
       <c r="B248" s="20" t="s">
         <v>192</v>
@@ -7417,7 +7424,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="23"/>
       <c r="B249" s="20" t="s">
         <v>277</v>
@@ -7434,7 +7441,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="47" t="s">
         <v>278</v>
       </c>
@@ -7449,7 +7456,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="23">
         <v>39083</v>
       </c>
@@ -7473,7 +7480,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="23">
         <v>39114</v>
       </c>
@@ -7499,7 +7506,7 @@
         <v>39125</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="23"/>
       <c r="B253" s="20" t="s">
         <v>52</v>
@@ -7516,7 +7523,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="23"/>
       <c r="B254" s="20" t="s">
         <v>280</v>
@@ -7533,7 +7540,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="23">
         <v>39142</v>
       </c>
@@ -7559,7 +7566,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="23"/>
       <c r="B256" s="20" t="s">
         <v>44</v>
@@ -7578,7 +7585,7 @@
         <v>39156</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="23"/>
       <c r="B257" s="20" t="s">
         <v>282</v>
@@ -7595,7 +7602,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="23">
         <v>39173</v>
       </c>
@@ -7619,7 +7626,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="23">
         <v>39203</v>
       </c>
@@ -7645,7 +7652,7 @@
         <v>39218</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="23"/>
       <c r="B260" s="20" t="s">
         <v>285</v>
@@ -7662,7 +7669,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="23">
         <v>39234</v>
       </c>
@@ -7688,7 +7695,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="23"/>
       <c r="B262" s="20" t="s">
         <v>44</v>
@@ -7707,7 +7714,7 @@
         <v>39259</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="23"/>
       <c r="B263" s="20" t="s">
         <v>287</v>
@@ -7724,7 +7731,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="23">
         <v>39264</v>
       </c>
@@ -7748,7 +7755,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="23">
         <v>39295</v>
       </c>
@@ -7772,7 +7779,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="23">
         <v>39326</v>
       </c>
@@ -7796,7 +7803,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="23"/>
       <c r="B267" s="20" t="s">
         <v>45</v>
@@ -7815,7 +7822,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="23"/>
       <c r="B268" s="20" t="s">
         <v>290</v>
@@ -7832,7 +7839,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="23">
         <v>39356</v>
       </c>
@@ -7856,7 +7863,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="23">
         <v>39387</v>
       </c>
@@ -7876,7 +7883,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="23">
         <v>39417</v>
       </c>
@@ -7900,7 +7907,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="47" t="s">
         <v>293</v>
       </c>
@@ -7915,7 +7922,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="23">
         <v>39448</v>
       </c>
@@ -7935,7 +7942,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="23">
         <v>39479</v>
       </c>
@@ -7955,7 +7962,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="23">
         <v>39508</v>
       </c>
@@ -7975,7 +7982,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="23">
         <v>39539</v>
       </c>
@@ -7995,7 +8002,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="23">
         <v>39569</v>
       </c>
@@ -8015,7 +8022,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="23">
         <v>39600</v>
       </c>
@@ -8039,7 +8046,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="23">
         <v>39630</v>
       </c>
@@ -8059,7 +8066,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="23">
         <v>39661</v>
       </c>
@@ -8079,7 +8086,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="23">
         <v>39692</v>
       </c>
@@ -8103,7 +8110,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="23">
         <v>39722</v>
       </c>
@@ -8123,7 +8130,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="23">
         <v>39753</v>
       </c>
@@ -8143,7 +8150,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="23">
         <v>39783</v>
       </c>
@@ -8167,7 +8174,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="47" t="s">
         <v>297</v>
       </c>
@@ -8185,7 +8192,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="23">
         <v>39814</v>
       </c>
@@ -8205,7 +8212,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="23">
         <v>39845</v>
       </c>
@@ -8225,7 +8232,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="23">
         <v>39873</v>
       </c>
@@ -8245,7 +8252,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="23">
         <v>39904</v>
       </c>
@@ -8265,7 +8272,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="23">
         <v>39934</v>
       </c>
@@ -8285,7 +8292,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="23">
         <v>39965</v>
       </c>
@@ -8309,7 +8316,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="23">
         <v>39995</v>
       </c>
@@ -8335,7 +8342,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="23"/>
       <c r="B293" s="20" t="s">
         <v>300</v>
@@ -8352,7 +8359,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="23">
         <v>40026</v>
       </c>
@@ -8376,7 +8383,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="23">
         <v>40057</v>
       </c>
@@ -8400,7 +8407,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="23">
         <v>40087</v>
       </c>
@@ -8424,7 +8431,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="23">
         <v>40118</v>
       </c>
@@ -8448,7 +8455,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="23">
         <v>40148</v>
       </c>
@@ -8472,7 +8479,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="23"/>
       <c r="B299" s="20" t="s">
         <v>287</v>
@@ -8489,7 +8496,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="47" t="s">
         <v>304</v>
       </c>
@@ -8504,7 +8511,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="23">
         <v>40179</v>
       </c>
@@ -8528,7 +8535,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="23">
         <v>40210</v>
       </c>
@@ -8552,7 +8559,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="23">
         <v>40238</v>
       </c>
@@ -8576,7 +8583,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="23">
         <v>40269</v>
       </c>
@@ -8600,7 +8607,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="23">
         <v>40299</v>
       </c>
@@ -8624,7 +8631,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="23">
         <v>40330</v>
       </c>
@@ -8648,7 +8655,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="23">
         <v>40360</v>
       </c>
@@ -8672,7 +8679,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="23">
         <v>40391</v>
       </c>
@@ -8696,7 +8703,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="23">
         <v>40422</v>
       </c>
@@ -8720,7 +8727,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="23">
         <v>40452</v>
       </c>
@@ -8744,7 +8751,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="23">
         <v>40483</v>
       </c>
@@ -8764,7 +8771,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="23">
         <v>40513</v>
       </c>
@@ -8788,7 +8795,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="23"/>
       <c r="B313" s="20" t="s">
         <v>313</v>
@@ -8805,7 +8812,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="47" t="s">
         <v>314</v>
       </c>
@@ -8820,7 +8827,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="23">
         <v>40544</v>
       </c>
@@ -8844,7 +8851,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="23">
         <v>40575</v>
       </c>
@@ -8868,7 +8875,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="23">
         <v>40603</v>
       </c>
@@ -8892,7 +8899,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="23">
         <v>40634</v>
       </c>
@@ -8916,7 +8923,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="23">
         <v>40664</v>
       </c>
@@ -8940,7 +8947,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="23">
         <v>40695</v>
       </c>
@@ -8964,7 +8971,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="23">
         <v>40725</v>
       </c>
@@ -8988,7 +8995,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="23">
         <v>40756</v>
       </c>
@@ -9008,7 +9015,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="23">
         <v>40787</v>
       </c>
@@ -9028,7 +9035,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="23">
         <v>40817</v>
       </c>
@@ -9052,7 +9059,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="23">
         <v>40848</v>
       </c>
@@ -9076,7 +9083,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="23">
         <v>40878</v>
       </c>
@@ -9100,7 +9107,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="47" t="s">
         <v>322</v>
       </c>
@@ -9115,7 +9122,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="23">
         <v>40909</v>
       </c>
@@ -9135,7 +9142,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="23">
         <v>40940</v>
       </c>
@@ -9155,7 +9162,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="23">
         <v>40969</v>
       </c>
@@ -9175,7 +9182,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="23">
         <v>41000</v>
       </c>
@@ -9195,7 +9202,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="23">
         <v>41030</v>
       </c>
@@ -9215,7 +9222,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="23">
         <v>41061</v>
       </c>
@@ -9235,7 +9242,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="23">
         <v>41091</v>
       </c>
@@ -9255,7 +9262,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="23">
         <v>41122</v>
       </c>
@@ -9275,7 +9282,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="23">
         <v>41153</v>
       </c>
@@ -9301,7 +9308,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="23">
         <v>41183</v>
       </c>
@@ -9321,7 +9328,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="23">
         <v>41214</v>
       </c>
@@ -9341,7 +9348,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="23">
         <v>41244</v>
       </c>
@@ -9365,7 +9372,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="47" t="s">
         <v>324</v>
       </c>
@@ -9380,7 +9387,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="23">
         <v>41275</v>
       </c>
@@ -9400,7 +9407,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="23">
         <v>41306</v>
       </c>
@@ -9420,7 +9427,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="23">
         <v>41334</v>
       </c>
@@ -9440,7 +9447,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="23">
         <v>41365</v>
       </c>
@@ -9460,7 +9467,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="23">
         <v>41395</v>
       </c>
@@ -9480,7 +9487,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="23">
         <v>41426</v>
       </c>
@@ -9500,7 +9507,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="23">
         <v>41456</v>
       </c>
@@ -9520,7 +9527,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="23">
         <v>41487</v>
       </c>
@@ -9540,7 +9547,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="23">
         <v>41518</v>
       </c>
@@ -9560,7 +9567,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="23">
         <v>41548</v>
       </c>
@@ -9580,7 +9587,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="23">
         <v>41579</v>
       </c>
@@ -9606,7 +9613,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="23"/>
       <c r="B352" s="20" t="s">
         <v>192</v>
@@ -9625,7 +9632,7 @@
         <v>41600</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="23"/>
       <c r="B353" s="20" t="s">
         <v>48</v>
@@ -9644,7 +9651,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="23">
         <v>41609</v>
       </c>
@@ -9664,7 +9671,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="47" t="s">
         <v>327</v>
       </c>
@@ -9679,7 +9686,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="23">
         <v>41640</v>
       </c>
@@ -9699,7 +9706,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="23">
         <v>41671</v>
       </c>
@@ -9719,7 +9726,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="23">
         <v>41699</v>
       </c>
@@ -9739,7 +9746,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="23">
         <v>41730</v>
       </c>
@@ -9759,7 +9766,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="23">
         <v>41760</v>
       </c>
@@ -9779,7 +9786,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="23">
         <v>41791</v>
       </c>
@@ -9799,7 +9806,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="23">
         <v>41821</v>
       </c>
@@ -9819,7 +9826,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="23">
         <v>41852</v>
       </c>
@@ -9839,7 +9846,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="23">
         <v>41883</v>
       </c>
@@ -9859,7 +9866,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="23">
         <v>41913</v>
       </c>
@@ -9879,7 +9886,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="23">
         <v>41944</v>
       </c>
@@ -9899,7 +9906,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="23">
         <v>41974</v>
       </c>
@@ -9923,7 +9930,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="47" t="s">
         <v>328</v>
       </c>
@@ -9938,7 +9945,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="23">
         <v>42005</v>
       </c>
@@ -9958,7 +9965,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="23">
         <v>42036</v>
       </c>
@@ -9978,7 +9985,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="23">
         <v>42064</v>
       </c>
@@ -10002,7 +10009,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="23">
         <v>42095</v>
       </c>
@@ -10026,7 +10033,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="23">
         <v>42125</v>
       </c>
@@ -10050,7 +10057,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="23">
         <v>42156</v>
       </c>
@@ -10070,7 +10077,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="23">
         <v>42186</v>
       </c>
@@ -10090,7 +10097,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="23">
         <v>42217</v>
       </c>
@@ -10110,7 +10117,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="23">
         <v>42248</v>
       </c>
@@ -10130,7 +10137,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="23">
         <v>42278</v>
       </c>
@@ -10156,7 +10163,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="23">
         <v>42309</v>
       </c>
@@ -10176,7 +10183,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="23">
         <v>42339</v>
       </c>
@@ -10202,7 +10209,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="23"/>
       <c r="B381" s="20" t="s">
         <v>296</v>
@@ -10219,7 +10226,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="47" t="s">
         <v>335</v>
       </c>
@@ -10234,7 +10241,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="23">
         <v>42370</v>
       </c>
@@ -10254,7 +10261,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="23">
         <v>42401</v>
       </c>
@@ -10274,7 +10281,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="23">
         <v>42430</v>
       </c>
@@ -10294,7 +10301,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="23">
         <v>42461</v>
       </c>
@@ -10314,7 +10321,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="23">
         <v>42491</v>
       </c>
@@ -10334,7 +10341,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="23">
         <v>42522</v>
       </c>
@@ -10354,7 +10361,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="23">
         <v>42552</v>
       </c>
@@ -10378,7 +10385,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="23">
         <v>42583</v>
       </c>
@@ -10402,7 +10409,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="23">
         <v>42614</v>
       </c>
@@ -10428,7 +10435,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="23"/>
       <c r="B392" s="20" t="s">
         <v>214</v>
@@ -10447,7 +10454,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="23">
         <v>42644</v>
       </c>
@@ -10471,7 +10478,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="23"/>
       <c r="B394" s="20" t="s">
         <v>338</v>
@@ -10491,7 +10498,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="23">
         <v>42675</v>
       </c>
@@ -10515,7 +10522,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="23">
         <v>42705</v>
       </c>
@@ -10539,7 +10546,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="23"/>
       <c r="B397" s="20" t="s">
         <v>342</v>
@@ -10559,7 +10566,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="47" t="s">
         <v>341</v>
       </c>
@@ -10574,7 +10581,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="23">
         <v>42736</v>
       </c>
@@ -10598,7 +10605,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="23">
         <v>42767</v>
       </c>
@@ -10624,7 +10631,7 @@
         <v>42785</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="23"/>
       <c r="B401" s="20" t="s">
         <v>344</v>
@@ -10641,7 +10648,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="23">
         <v>42795</v>
       </c>
@@ -10665,7 +10672,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="23">
         <v>42826</v>
       </c>
@@ -10685,7 +10692,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="23">
         <v>42856</v>
       </c>
@@ -10709,7 +10716,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="23">
         <v>42887</v>
       </c>
@@ -10729,7 +10736,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="23">
         <v>42917</v>
       </c>
@@ -10749,7 +10756,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="23">
         <v>42948</v>
       </c>
@@ -10769,7 +10776,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="23">
         <v>42979</v>
       </c>
@@ -10789,7 +10796,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="23">
         <v>43009</v>
       </c>
@@ -10815,7 +10822,7 @@
         <v>43023</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="23">
         <v>43040</v>
       </c>
@@ -10841,7 +10848,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="23">
         <v>43070</v>
       </c>
@@ -10865,7 +10872,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="47" t="s">
         <v>348</v>
       </c>
@@ -10880,7 +10887,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40">
         <v>43101</v>
       </c>
@@ -10900,7 +10907,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40">
         <v>43132</v>
       </c>
@@ -10920,7 +10927,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40">
         <v>43160</v>
       </c>
@@ -10940,7 +10947,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40">
         <v>43191</v>
       </c>
@@ -10960,7 +10967,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40">
         <v>43221</v>
       </c>
@@ -10986,7 +10993,7 @@
         <v>43226</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>44</v>
@@ -11005,7 +11012,7 @@
         <v>43235</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40">
         <v>43252</v>
       </c>
@@ -11031,7 +11038,7 @@
         <v>43277</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40">
         <v>43282</v>
       </c>
@@ -11057,7 +11064,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
         <v>43313</v>
       </c>
@@ -11077,7 +11084,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40">
         <v>43344</v>
       </c>
@@ -11097,7 +11104,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40">
         <v>43374</v>
       </c>
@@ -11123,7 +11130,7 @@
         <v>43387</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40">
         <v>43405</v>
       </c>
@@ -11149,7 +11156,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40">
         <v>43435</v>
       </c>
@@ -11173,7 +11180,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="47" t="s">
         <v>50</v>
       </c>
@@ -11191,7 +11198,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40">
         <v>43466</v>
       </c>
@@ -11217,7 +11224,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>51</v>
@@ -11236,7 +11243,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40">
         <v>43497</v>
       </c>
@@ -11256,7 +11263,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40">
         <v>43525</v>
       </c>
@@ -11276,7 +11283,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40">
         <v>43556</v>
       </c>
@@ -11302,7 +11309,7 @@
         <v>43563</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40"/>
       <c r="B432" s="20" t="s">
         <v>45</v>
@@ -11321,7 +11328,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40">
         <v>43586</v>
       </c>
@@ -11341,7 +11348,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40">
         <v>43617</v>
       </c>
@@ -11367,7 +11374,7 @@
         <v>43646</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40">
         <v>43647</v>
       </c>
@@ -11387,7 +11394,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40">
         <v>43678</v>
       </c>
@@ -11407,7 +11414,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40">
         <v>43709</v>
       </c>
@@ -11427,7 +11434,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40">
         <v>43739</v>
       </c>
@@ -11451,7 +11458,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40">
         <v>43770</v>
       </c>
@@ -11475,7 +11482,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40">
         <v>43800</v>
       </c>
@@ -11501,7 +11508,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="47" t="s">
         <v>56</v>
       </c>
@@ -11519,7 +11526,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40">
         <v>43831</v>
       </c>
@@ -11543,7 +11550,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
         <v>44</v>
@@ -11562,7 +11569,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40"/>
       <c r="B444" s="20" t="s">
         <v>60</v>
@@ -11579,7 +11586,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40">
         <v>43862</v>
       </c>
@@ -11599,7 +11606,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40">
         <v>43891</v>
       </c>
@@ -11619,7 +11626,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40">
         <v>43922</v>
       </c>
@@ -11639,7 +11646,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40">
         <v>43952</v>
       </c>
@@ -11659,7 +11666,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40">
         <v>43983</v>
       </c>
@@ -11683,7 +11690,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
         <v>44013</v>
       </c>
@@ -11703,7 +11710,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40">
         <v>44044</v>
       </c>
@@ -11723,7 +11730,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40">
         <v>44075</v>
       </c>
@@ -11743,7 +11750,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40">
         <v>44105</v>
       </c>
@@ -11763,7 +11770,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
         <v>44136</v>
       </c>
@@ -11783,7 +11790,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
         <v>44166</v>
       </c>
@@ -11809,7 +11816,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>47</v>
@@ -11831,7 +11838,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="47" t="s">
         <v>64</v>
       </c>
@@ -11849,7 +11856,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <v>44197</v>
       </c>
@@ -11869,7 +11876,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <v>44228</v>
       </c>
@@ -11889,7 +11896,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <v>44256</v>
       </c>
@@ -11909,7 +11916,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40">
         <v>44287</v>
       </c>
@@ -11929,7 +11936,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40">
         <v>44317</v>
       </c>
@@ -11949,7 +11956,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40">
         <v>44348</v>
       </c>
@@ -11969,7 +11976,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
         <v>44378</v>
       </c>
@@ -11989,7 +11996,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40">
         <v>44409</v>
       </c>
@@ -12009,7 +12016,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40">
         <v>44440</v>
       </c>
@@ -12029,7 +12036,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40">
         <v>44470</v>
       </c>
@@ -12049,7 +12056,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
         <v>44501</v>
       </c>
@@ -12069,7 +12076,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40">
         <v>44531</v>
       </c>
@@ -12095,7 +12102,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40"/>
       <c r="B470" s="20" t="s">
         <v>47</v>
@@ -12117,7 +12124,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="47" t="s">
         <v>67</v>
       </c>
@@ -12135,7 +12142,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40">
         <v>44562</v>
       </c>
@@ -12155,7 +12162,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40">
         <v>44593</v>
       </c>
@@ -12175,7 +12182,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40">
         <v>44621</v>
       </c>
@@ -12195,7 +12202,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
         <v>44652</v>
       </c>
@@ -12221,7 +12228,7 @@
         <v>44661</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>354</v>
@@ -12243,7 +12250,7 @@
         <v>45040</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>310</v>
@@ -12263,7 +12270,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="48"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40">
         <v>44682</v>
       </c>
@@ -12289,7 +12296,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>356</v>
@@ -12309,7 +12316,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40">
         <v>44713</v>
       </c>
@@ -12335,7 +12342,7 @@
         <v>44734</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40"/>
       <c r="B481" s="20" t="s">
         <v>52</v>
@@ -12355,7 +12362,7 @@
         <v>44742</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40"/>
       <c r="B482" s="20" t="s">
         <v>44</v>
@@ -12377,7 +12384,7 @@
         <v>44780</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40"/>
       <c r="B483" s="20" t="s">
         <v>355</v>
@@ -12399,7 +12406,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40"/>
       <c r="B484" s="20" t="s">
         <v>110</v>
@@ -12419,7 +12426,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="48"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40">
         <v>44743</v>
       </c>
@@ -12443,7 +12450,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40">
         <v>44774</v>
       </c>
@@ -12467,7 +12474,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40">
         <v>44805</v>
       </c>
@@ -12493,7 +12500,7 @@
         <v>44815</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40"/>
       <c r="B488" s="20" t="s">
         <v>358</v>
@@ -12513,7 +12520,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="48"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40">
         <v>44835</v>
       </c>
@@ -12537,7 +12544,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40">
         <v>44866</v>
       </c>
@@ -12563,7 +12570,7 @@
         <v>44878</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
         <v>137</v>
@@ -12583,7 +12590,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="48"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40">
         <v>44896</v>
       </c>
@@ -12607,7 +12614,7 @@
         <v>44901</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40"/>
       <c r="B493" s="20" t="s">
         <v>57</v>
@@ -12629,7 +12636,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
         <v>354</v>
@@ -12651,7 +12658,7 @@
         <v>44910</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40"/>
       <c r="B495" s="20" t="s">
         <v>101</v>
@@ -12671,7 +12678,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="48"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="47" t="s">
         <v>69</v>
       </c>
@@ -12689,7 +12696,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40">
         <v>44927</v>
       </c>
@@ -12715,7 +12722,7 @@
         <v>44941</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40">
         <v>44958</v>
       </c>
@@ -12741,7 +12748,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40">
         <v>44986</v>
       </c>
@@ -12767,7 +12774,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
         <v>45017</v>
       </c>
@@ -12787,7 +12794,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40">
         <v>45047</v>
       </c>
@@ -12813,7 +12820,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40"/>
       <c r="B502" s="20" t="s">
         <v>47</v>
@@ -12835,7 +12842,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40">
         <v>45078</v>
       </c>
@@ -12855,7 +12862,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
         <v>45108</v>
       </c>
@@ -12881,7 +12888,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40">
         <v>45139</v>
       </c>
@@ -12907,7 +12914,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40">
         <v>45170</v>
       </c>
@@ -12933,7 +12940,7 @@
         <v>45177</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40">
         <v>45200</v>
       </c>
@@ -12959,7 +12966,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40"/>
       <c r="B508" s="20" t="s">
         <v>48</v>
@@ -12981,7 +12988,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40"/>
       <c r="B509" s="20" t="s">
         <v>51</v>
@@ -13003,7 +13010,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40">
         <v>45231</v>
       </c>
@@ -13029,7 +13036,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40"/>
       <c r="B511" s="20" t="s">
         <v>45</v>
@@ -13051,7 +13058,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40">
         <v>45261</v>
       </c>
@@ -13071,7 +13078,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="47" t="s">
         <v>370</v>
       </c>
@@ -13089,31 +13096,37 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40">
         <v>45292</v>
       </c>
       <c r="B514" s="20"/>
-      <c r="C514" s="13"/>
+      <c r="C514" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D514" s="39"/>
       <c r="E514" s="9"/>
       <c r="F514" s="20"/>
-      <c r="G514" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G514" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H514" s="39"/>
       <c r="I514" s="9"/>
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40">
         <v>45323</v>
       </c>
-      <c r="B515" s="20"/>
+      <c r="B515" s="20" t="s">
+        <v>372</v>
+      </c>
       <c r="C515" s="13"/>
-      <c r="D515" s="39"/>
+      <c r="D515" s="39">
+        <v>4</v>
+      </c>
       <c r="E515" s="9"/>
       <c r="F515" s="20"/>
       <c r="G515" s="13" t="str">
@@ -13123,9 +13136,11 @@
       <c r="H515" s="39"/>
       <c r="I515" s="9"/>
       <c r="J515" s="11"/>
-      <c r="K515" s="20"/>
-    </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K515" s="20" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40">
         <v>45352</v>
       </c>
@@ -13143,7 +13158,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40">
         <v>45383</v>
       </c>
@@ -13161,7 +13176,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40">
         <v>45413</v>
       </c>
@@ -13179,7 +13194,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40">
         <v>45444</v>
       </c>
@@ -13197,7 +13212,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40">
         <v>45474</v>
       </c>
@@ -13215,7 +13230,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40">
         <v>45505</v>
       </c>
@@ -13233,7 +13248,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40">
         <v>45536</v>
       </c>
@@ -13251,7 +13266,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40">
         <v>45566</v>
       </c>
@@ -13269,7 +13284,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40">
         <v>45597</v>
       </c>
@@ -13287,7 +13302,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40">
         <v>45627</v>
       </c>
@@ -13305,7 +13320,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40">
         <v>45658</v>
       </c>
@@ -13323,7 +13338,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40">
         <v>45689</v>
       </c>
@@ -13341,7 +13356,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40">
         <v>45717</v>
       </c>
@@ -13359,7 +13374,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40">
         <v>45748</v>
       </c>
@@ -13377,7 +13392,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40">
         <v>45778</v>
       </c>
@@ -13395,7 +13410,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40">
         <v>45809</v>
       </c>
@@ -13413,7 +13428,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40">
         <v>45839</v>
       </c>
@@ -13431,7 +13446,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40">
         <v>45870</v>
       </c>
@@ -13449,7 +13464,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40">
         <v>45901</v>
       </c>
@@ -13467,7 +13482,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40">
         <v>45931</v>
       </c>
@@ -13485,7 +13500,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40">
         <v>45962</v>
       </c>
@@ -13503,7 +13518,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40">
         <v>45992</v>
       </c>
@@ -13521,7 +13536,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40">
         <v>46023</v>
       </c>
@@ -13539,7 +13554,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40">
         <v>46054</v>
       </c>
@@ -13557,7 +13572,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40">
         <v>46082</v>
       </c>
@@ -13575,7 +13590,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40">
         <v>46113</v>
       </c>
@@ -13593,7 +13608,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40">
         <v>46143</v>
       </c>
@@ -13611,7 +13626,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40">
         <v>46174</v>
       </c>
@@ -13629,7 +13644,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40">
         <v>46204</v>
       </c>
@@ -13647,7 +13662,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40">
         <v>46235</v>
       </c>
@@ -13665,7 +13680,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40">
         <v>46266</v>
       </c>
@@ -13683,7 +13698,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40">
         <v>46296</v>
       </c>
@@ -13701,7 +13716,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40">
         <v>46327</v>
       </c>
@@ -13719,7 +13734,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40">
         <v>46357</v>
       </c>
@@ -13737,7 +13752,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40">
         <v>46388</v>
       </c>
@@ -13755,7 +13770,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40"/>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -13786,10 +13801,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13812,28 +13827,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -13846,7 +13861,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -13875,7 +13890,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>26.103999999999999</v>
       </c>
@@ -13905,17 +13920,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>371</v>
       </c>
@@ -13939,10 +13954,10 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>408.803</v>
+        <v>407.303</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -13970,7 +13985,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -13996,7 +14011,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -14022,7 +14037,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -14048,7 +14063,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -14074,7 +14089,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -14100,7 +14115,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -14126,7 +14141,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -14152,7 +14167,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -14172,7 +14187,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -14192,7 +14207,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -14212,7 +14227,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -14233,7 +14248,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -14254,7 +14269,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -14275,7 +14290,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -14296,7 +14311,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -14317,7 +14332,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -14338,7 +14353,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -14359,7 +14374,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -14380,7 +14395,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -14401,7 +14416,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -14422,7 +14437,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -14443,7 +14458,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -14464,7 +14479,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -14485,7 +14500,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -14506,7 +14521,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -14527,7 +14542,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -14548,7 +14563,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -14569,7 +14584,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -14590,7 +14605,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -14611,7 +14626,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -14632,7 +14647,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -14641,7 +14656,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -14650,7 +14665,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -14659,7 +14674,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -14668,7 +14683,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -14677,7 +14692,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -14686,7 +14701,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -14695,7 +14710,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -14704,7 +14719,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -14713,7 +14728,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -14722,7 +14737,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -14731,7 +14746,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -14740,7 +14755,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -14749,7 +14764,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -14758,7 +14773,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -14767,7 +14782,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -14776,7 +14791,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -14785,7 +14800,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -14794,7 +14809,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -14803,7 +14818,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -14812,7 +14827,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -14821,7 +14836,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -14830,7 +14845,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -14839,7 +14854,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -14848,7 +14863,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -14857,7 +14872,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -14866,7 +14881,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -14875,7 +14890,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -14884,7 +14899,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -14893,7 +14908,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
